--- a/Assets/StreamingAssets/skill_configs.xlsx
+++ b/Assets/StreamingAssets/skill_configs.xlsx
@@ -9,12 +9,77 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ Enemy = 0,
+ Partener = 1,
+ Self = 2,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ None = 0,
+ HpPercentLowest = 1,</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,7 +161,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鸟姐三技能</t>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetFieltType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖刀姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打火机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蛇boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莹草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姑获鸟技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子辣条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,15 +241,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兔子辣条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>通用普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打火机被动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +289,21 @@
       <color theme="3" tint="0.39997558519241921"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -493,11 +641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -506,18 +654,19 @@
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="11.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,34 +677,40 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -566,111 +721,284 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>100101</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
         <v>1.2</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
+      <c r="H4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>100201</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>1.2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>100301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="1">
         <v>3.3</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>100301</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>100401</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>100501</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>100601</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>100701</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>100710</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>100801</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>100901</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>101001</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>101101</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>101201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>101301</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>101401</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>200901</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>